--- a/biology/Zoologie/Isopeda_vasta/Isopeda_vasta.xlsx
+++ b/biology/Zoologie/Isopeda_vasta/Isopeda_vasta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isopeda vasta est une espèce d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isopeda vasta est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Hirst en 1990 mesure 8,8 mm sur 8,2 mm et l'abdomen 9,2 mm de long sur 6,4 mm et la carapace  de la femelle mesure 9,2 mm de long sur 8,6 mm et l'abdomen 13,5 mm de long sur 10,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Hirst en 1990 mesure 8,8 mm sur 8,2 mm et l'abdomen 9,2 mm de long sur 6,4 mm et la carapace  de la femelle mesure 9,2 mm de long sur 8,6 mm et l'abdomen 13,5 mm de long sur 10,7 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1867 : Beschreibungen neuer Arachniden und Myriapoden. II. Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 17, p. 173-250 (texte intégral).</t>
         </is>
